--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Plg-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Plg</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1.397277</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>0.6511469178060001</v>
+        <v>0.389656152942</v>
       </c>
       <c r="R2">
-        <v>5.860322260254001</v>
+        <v>3.506905376478</v>
       </c>
       <c r="S2">
-        <v>0.139066772576779</v>
+        <v>0.07753479704174558</v>
       </c>
       <c r="T2">
-        <v>0.139066772576779</v>
+        <v>0.07753479704174558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>1.397277</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>3.697777296003001</v>
+        <v>3.697777296003</v>
       </c>
       <c r="R3">
-        <v>33.27999566402701</v>
+        <v>33.279995664027</v>
       </c>
       <c r="S3">
-        <v>0.7897418235434784</v>
+        <v>0.7357933654748251</v>
       </c>
       <c r="T3">
-        <v>0.7897418235434783</v>
+        <v>0.7357933654748252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>1.397277</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9660838355812051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>0.333336729915</v>
+        <v>0.767683545678</v>
       </c>
       <c r="R4">
-        <v>3.000030569235</v>
+        <v>6.909151911102001</v>
       </c>
       <c r="S4">
-        <v>0.0711914038797426</v>
+        <v>0.1527556730646344</v>
       </c>
       <c r="T4">
-        <v>0.07119140387974258</v>
+        <v>0.1527556730646345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.049054</v>
+      </c>
+      <c r="I5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J5">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.8366046666666667</v>
+      </c>
+      <c r="N5">
+        <v>2.509814</v>
+      </c>
+      <c r="O5">
+        <v>0.08025679986157715</v>
+      </c>
+      <c r="P5">
+        <v>0.08025679986157715</v>
+      </c>
+      <c r="Q5">
+        <v>0.01367960177288889</v>
+      </c>
+      <c r="R5">
+        <v>0.123116415956</v>
+      </c>
+      <c r="S5">
+        <v>0.002722002819831564</v>
+      </c>
+      <c r="T5">
+        <v>0.002722002819831564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.049054</v>
+      </c>
+      <c r="I6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J6">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.939250333333333</v>
+      </c>
+      <c r="N6">
+        <v>23.817751</v>
+      </c>
+      <c r="O6">
+        <v>0.7616247559221037</v>
+      </c>
+      <c r="P6">
+        <v>0.7616247559221038</v>
+      </c>
+      <c r="Q6">
+        <v>0.1298173286171111</v>
+      </c>
+      <c r="R6">
+        <v>1.168355957554</v>
+      </c>
+      <c r="S6">
+        <v>0.02583139044727857</v>
+      </c>
+      <c r="T6">
+        <v>0.02583139044727858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01635133333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.049054</v>
+      </c>
+      <c r="I7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="J7">
+        <v>0.03391616441879487</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.648242</v>
+      </c>
+      <c r="N7">
+        <v>4.944726</v>
+      </c>
+      <c r="O7">
+        <v>0.1581184442163192</v>
+      </c>
+      <c r="P7">
+        <v>0.1581184442163192</v>
+      </c>
+      <c r="Q7">
+        <v>0.026950954356</v>
+      </c>
+      <c r="R7">
+        <v>0.242558589204</v>
+      </c>
+      <c r="S7">
+        <v>0.005362771151684725</v>
+      </c>
+      <c r="T7">
+        <v>0.005362771151684726</v>
       </c>
     </row>
   </sheetData>
